--- a/disneySeries.xlsx
+++ b/disneySeries.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195A816-6BA3-442A-A7C9-4C3698345AF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="FEB 2020" state="visible" r:id="rId4"/>
+    <sheet name="FEB 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="406">
   <si>
     <t>bot_system</t>
   </si>
@@ -725,19 +729,523 @@
   </si>
   <si>
     <t>https://www.disneyplus.com/video/d332b464-3b44-4ace-af1b-bcabcf5f9155</t>
+  </si>
+  <si>
+    <t>Water War</t>
+  </si>
+  <si>
+    <t>0118dfcf-cb59-44eb-bb93-15888e9cb8a6</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/0118dfcf-cb59-44eb-bb93-15888e9cb8a6</t>
+  </si>
+  <si>
+    <t>Gungan Attack</t>
+  </si>
+  <si>
+    <t>661736f6-035f-4d8f-98b7-d1a75d3359db</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/661736f6-035f-4d8f-98b7-d1a75d3359db</t>
+  </si>
+  <si>
+    <t>Prisoners</t>
+  </si>
+  <si>
+    <t>a78235e0-c137-410c-abd8-69601e432648</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/a78235e0-c137-410c-abd8-69601e432648</t>
+  </si>
+  <si>
+    <t>Shadow Warrior</t>
+  </si>
+  <si>
+    <t>794938c4-0700-4b1f-a6c3-20aff7ca1b39</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/794938c4-0700-4b1f-a6c3-20aff7ca1b39</t>
+  </si>
+  <si>
+    <t>Mercy Mission</t>
+  </si>
+  <si>
+    <t>1d717a67-fdce-4404-aed6-3cca361e0946</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/1d717a67-fdce-4404-aed6-3cca361e0946</t>
+  </si>
+  <si>
+    <t>Nomad Droids</t>
+  </si>
+  <si>
+    <t>70b7d424-fd27-4388-b934-b4bfad3f898d</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/70b7d424-fd27-4388-b934-b4bfad3f898d</t>
+  </si>
+  <si>
+    <t>Darkness on Umbara</t>
+  </si>
+  <si>
+    <t>f9bfac62-4bb9-443b-905c-db5d978df3f2</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/f9bfac62-4bb9-443b-905c-db5d978df3f2</t>
+  </si>
+  <si>
+    <t>The General</t>
+  </si>
+  <si>
+    <t>61e6b80b-ae44-431d-ae37-3ff46db6fdf6</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/61e6b80b-ae44-431d-ae37-3ff46db6fdf6</t>
+  </si>
+  <si>
+    <t>Plan of Dissent</t>
+  </si>
+  <si>
+    <t>5dfa03d3-ec0c-462e-96b9-9995bb5b7e1d</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/5dfa03d3-ec0c-462e-96b9-9995bb5b7e1d</t>
+  </si>
+  <si>
+    <t>Carnage of Krell</t>
+  </si>
+  <si>
+    <t>3ea87b6f-c298-4847-a69d-05d6ec748f59</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/3ea87b6f-c298-4847-a69d-05d6ec748f59</t>
+  </si>
+  <si>
+    <t>Kidnapped</t>
+  </si>
+  <si>
+    <t>02bd06fc-230f-4667-b9da-23fb11d66b70</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/02bd06fc-230f-4667-b9da-23fb11d66b70</t>
+  </si>
+  <si>
+    <t>Slaves of the Republic</t>
+  </si>
+  <si>
+    <t>22ffd322-9702-403f-93d3-47dc7780e062</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/22ffd322-9702-403f-93d3-47dc7780e062</t>
+  </si>
+  <si>
+    <t>Escape from Kadavo</t>
+  </si>
+  <si>
+    <t>b2e1fd41-8496-4860-9ef8-80bed1b92754</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/b2e1fd41-8496-4860-9ef8-80bed1b92754</t>
+  </si>
+  <si>
+    <t>A Friend in Need</t>
+  </si>
+  <si>
+    <t>916bff39-2aae-47db-b43a-e22f4179d093</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/916bff39-2aae-47db-b43a-e22f4179d093</t>
+  </si>
+  <si>
+    <t>Deception</t>
+  </si>
+  <si>
+    <t>c639cb21-5137-4090-a440-8f84a171d235</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/c639cb21-5137-4090-a440-8f84a171d235</t>
+  </si>
+  <si>
+    <t>Friends and Enemies</t>
+  </si>
+  <si>
+    <t>8fa14ce6-7c73-48b9-b271-16dffeb62fec</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/8fa14ce6-7c73-48b9-b271-16dffeb62fec</t>
+  </si>
+  <si>
+    <t>The Box</t>
+  </si>
+  <si>
+    <t>f95cb9de-abf7-4d7f-8a65-d9a731a60f47</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/f95cb9de-abf7-4d7f-8a65-d9a731a60f47</t>
+  </si>
+  <si>
+    <t>Crisis on Naboo</t>
+  </si>
+  <si>
+    <t>ca31a17c-8cb2-4b69-acf5-4f1e399abf5d</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/ca31a17c-8cb2-4b69-acf5-4f1e399abf5d</t>
+  </si>
+  <si>
+    <t>Massacre</t>
+  </si>
+  <si>
+    <t>2467b031-3144-40b8-a3c2-55160986820d</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/2467b031-3144-40b8-a3c2-55160986820d</t>
+  </si>
+  <si>
+    <t>Bounty</t>
+  </si>
+  <si>
+    <t>f7e92583-e67e-4ade-8da8-f64a2b38534a</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/f7e92583-e67e-4ade-8da8-f64a2b38534a</t>
+  </si>
+  <si>
+    <t>Brothers</t>
+  </si>
+  <si>
+    <t>ea059b38-a21c-4ff2-8e64-6c3bda2d6afc</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/ea059b38-a21c-4ff2-8e64-6c3bda2d6afc</t>
+  </si>
+  <si>
+    <t>Revenge</t>
+  </si>
+  <si>
+    <t>6a302c32-b9bb-4d73-b69d-7698df40ae54</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/6a302c32-b9bb-4d73-b69d-7698df40ae54</t>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>46bf27c0-bc74-404a-98de-56bbe187d941</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/46bf27c0-bc74-404a-98de-56bbe187d941</t>
+  </si>
+  <si>
+    <t>A War on Two Fronts</t>
+  </si>
+  <si>
+    <t>ede2e807-00f4-4c49-b634-16d7826ef47a</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/ede2e807-00f4-4c49-b634-16d7826ef47a</t>
+  </si>
+  <si>
+    <t>Front Runners</t>
+  </si>
+  <si>
+    <t>e834cd28-5335-43c7-a5f1-9814431f414c</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/e834cd28-5335-43c7-a5f1-9814431f414c</t>
+  </si>
+  <si>
+    <t>The Soft War</t>
+  </si>
+  <si>
+    <t>bda5b155-0414-458c-9c65-457697ae8fb5</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/bda5b155-0414-458c-9c65-457697ae8fb5</t>
+  </si>
+  <si>
+    <t>Tipping Points</t>
+  </si>
+  <si>
+    <t>682b3543-c8ae-4f19-99f9-411bb43a0467</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/682b3543-c8ae-4f19-99f9-411bb43a0467</t>
+  </si>
+  <si>
+    <t>The Gathering</t>
+  </si>
+  <si>
+    <t>dce32899-0e62-479d-b33a-37ca69ad9565</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/dce32899-0e62-479d-b33a-37ca69ad9565</t>
+  </si>
+  <si>
+    <t>A Test of Strength</t>
+  </si>
+  <si>
+    <t>da339c6c-de91-40f2-a091-09cb11a80f17</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/da339c6c-de91-40f2-a091-09cb11a80f17</t>
+  </si>
+  <si>
+    <t>Bound for Rescue</t>
+  </si>
+  <si>
+    <t>8cc2c6fb-ec6b-406e-a334-bb44f2fed008</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/8cc2c6fb-ec6b-406e-a334-bb44f2fed008</t>
+  </si>
+  <si>
+    <t>A Necessary Bond</t>
+  </si>
+  <si>
+    <t>06eb2462-5d0c-42a9-a1b4-acc9ccfd109e</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/06eb2462-5d0c-42a9-a1b4-acc9ccfd109e</t>
+  </si>
+  <si>
+    <t>Secret Weapons</t>
+  </si>
+  <si>
+    <t>29f4f86d-1c16-47b5-9f2c-9df1e58fc01f</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/29f4f86d-1c16-47b5-9f2c-9df1e58fc01f</t>
+  </si>
+  <si>
+    <t>A Sunny Day in the Void</t>
+  </si>
+  <si>
+    <t>9c96ac8c-2f1e-463e-8361-218fb2796aff</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/9c96ac8c-2f1e-463e-8361-218fb2796aff</t>
+  </si>
+  <si>
+    <t>Missing in Action</t>
+  </si>
+  <si>
+    <t>3f8328ff-925d-4554-808c-5dc2c03c5df7</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/3f8328ff-925d-4554-808c-5dc2c03c5df7</t>
+  </si>
+  <si>
+    <t>Point of No Return</t>
+  </si>
+  <si>
+    <t>7fd11383-337a-43ef-a633-94f357cc511a</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/7fd11383-337a-43ef-a633-94f357cc511a</t>
+  </si>
+  <si>
+    <t>Eminence</t>
+  </si>
+  <si>
+    <t>bce6b831-36ff-4ef7-9c85-7ae8030cdbcb</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/bce6b831-36ff-4ef7-9c85-7ae8030cdbcb</t>
+  </si>
+  <si>
+    <t>Shades of Reason</t>
+  </si>
+  <si>
+    <t>9fce5334-6a7b-4308-9d90-e50e579b5cbb</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/9fce5334-6a7b-4308-9d90-e50e579b5cbb</t>
+  </si>
+  <si>
+    <t>The Lawless</t>
+  </si>
+  <si>
+    <t>13bc0d23-46f6-4650-952c-57a19aac17bd</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/13bc0d23-46f6-4650-952c-57a19aac17bd</t>
+  </si>
+  <si>
+    <t>Sabotage</t>
+  </si>
+  <si>
+    <t>17176f47-85e5-4687-ae84-a3d7f6984415</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/17176f47-85e5-4687-ae84-a3d7f6984415</t>
+  </si>
+  <si>
+    <t>The Jedi Who Knew Too Much</t>
+  </si>
+  <si>
+    <t>a799d6f3-a50e-4be0-b8f2-8102f11c1bb7</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/a799d6f3-a50e-4be0-b8f2-8102f11c1bb7</t>
+  </si>
+  <si>
+    <t>To Catch a Jedi</t>
+  </si>
+  <si>
+    <t>d504b77e-8c64-44a4-b051-ca5e9300d4a9</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/d504b77e-8c64-44a4-b051-ca5e9300d4a9</t>
+  </si>
+  <si>
+    <t>The Wrong Jedi</t>
+  </si>
+  <si>
+    <t>c09fcde1-1b4d-40da-af52-5d8fa0611a53</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/c09fcde1-1b4d-40da-af52-5d8fa0611a53</t>
+  </si>
+  <si>
+    <t>The Unknown</t>
+  </si>
+  <si>
+    <t>ec135b2d-d990-4564-99d4-2e3a2ee866bd</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/ec135b2d-d990-4564-99d4-2e3a2ee866bd</t>
+  </si>
+  <si>
+    <t>Conspiracy</t>
+  </si>
+  <si>
+    <t>d4e8fd92-4d92-494d-8d49-d5b148bdcbb5</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/d4e8fd92-4d92-494d-8d49-d5b148bdcbb5</t>
+  </si>
+  <si>
+    <t>Fugitive</t>
+  </si>
+  <si>
+    <t>e3d63b2f-8e40-4064-9fe8-1f32299f17d3</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/e3d63b2f-8e40-4064-9fe8-1f32299f17d3</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>46c3decc-a11c-4d2e-a792-069ebe535003</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/46c3decc-a11c-4d2e-a792-069ebe535003</t>
+  </si>
+  <si>
+    <t>An Old Friend</t>
+  </si>
+  <si>
+    <t>64438a1c-f629-4085-b461-33fac7ea99ba</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/64438a1c-f629-4085-b461-33fac7ea99ba</t>
+  </si>
+  <si>
+    <t>The Rise of Clovis</t>
+  </si>
+  <si>
+    <t>cad54530-94eb-4b92-b380-b0a807d195c5</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/cad54530-94eb-4b92-b380-b0a807d195c5</t>
+  </si>
+  <si>
+    <t>Crisis at the Heart</t>
+  </si>
+  <si>
+    <t>2a2fc61d-3813-4cf8-88a7-cab1975cee35</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/2a2fc61d-3813-4cf8-88a7-cab1975cee35</t>
+  </si>
+  <si>
+    <t>The Disappeared: Part 1</t>
+  </si>
+  <si>
+    <t>6173c7f8-b2d8-448c-8143-77eb71c73589</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/6173c7f8-b2d8-448c-8143-77eb71c73589</t>
+  </si>
+  <si>
+    <t>The Disappeared Part 2</t>
+  </si>
+  <si>
+    <t>2e4fe8fe-c7e3-40dc-87d7-bdb7e02eb896</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/2e4fe8fe-c7e3-40dc-87d7-bdb7e02eb896</t>
+  </si>
+  <si>
+    <t>The Lost Ones</t>
+  </si>
+  <si>
+    <t>f8d1131b-c197-4e8e-b1a5-9f9ad5e7cb9b</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/f8d1131b-c197-4e8e-b1a5-9f9ad5e7cb9b</t>
+  </si>
+  <si>
+    <t>Voices</t>
+  </si>
+  <si>
+    <t>ced4924c-6c39-4346-b07e-d22fb33de653</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/ced4924c-6c39-4346-b07e-d22fb33de653</t>
+  </si>
+  <si>
+    <t>Destiny</t>
+  </si>
+  <si>
+    <t>99e77e6b-d43a-4f6f-b07c-51d48ee4c3bd</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/99e77e6b-d43a-4f6f-b07c-51d48ee4c3bd</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>37357ff9-88a7-4652-b16e-cda4808d1930</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/37357ff9-88a7-4652-b16e-cda4808d1930</t>
+  </si>
+  <si>
+    <t>The Bad Batch</t>
+  </si>
+  <si>
+    <t>9ee46453-c414-4c89-b3ef-b0d4d1c001fc</t>
+  </si>
+  <si>
+    <t>https://www.disneyplus.com/video/9ee46453-c414-4c89-b3ef-b0d4d1c001fc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -764,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1100,11 +1608,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB67"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="28" width="10" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="72.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
@@ -6869,8 +7407,4824 @@
         <v>33</v>
       </c>
     </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" t="s">
+        <v>33</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>238</v>
+      </c>
+      <c r="P68" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>239</v>
+      </c>
+      <c r="R68" t="s">
+        <v>240</v>
+      </c>
+      <c r="S68" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" t="s">
+        <v>33</v>
+      </c>
+      <c r="U68" t="s">
+        <v>33</v>
+      </c>
+      <c r="V68">
+        <v>1500</v>
+      </c>
+      <c r="W68" t="s">
+        <v>38</v>
+      </c>
+      <c r="X68" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>32</v>
+      </c>
+      <c r="F69" t="s">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s">
+        <v>33</v>
+      </c>
+      <c r="H69" t="s">
+        <v>33</v>
+      </c>
+      <c r="I69" t="s">
+        <v>33</v>
+      </c>
+      <c r="J69" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" t="s">
+        <v>33</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>241</v>
+      </c>
+      <c r="P69" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>242</v>
+      </c>
+      <c r="R69" t="s">
+        <v>243</v>
+      </c>
+      <c r="S69" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" t="s">
+        <v>33</v>
+      </c>
+      <c r="U69" t="s">
+        <v>33</v>
+      </c>
+      <c r="V69">
+        <v>1560</v>
+      </c>
+      <c r="W69" t="s">
+        <v>38</v>
+      </c>
+      <c r="X69" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" t="s">
+        <v>33</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" t="s">
+        <v>244</v>
+      </c>
+      <c r="P70" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>245</v>
+      </c>
+      <c r="R70" t="s">
+        <v>246</v>
+      </c>
+      <c r="S70" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" t="s">
+        <v>33</v>
+      </c>
+      <c r="U70" t="s">
+        <v>33</v>
+      </c>
+      <c r="V70">
+        <v>1500</v>
+      </c>
+      <c r="W70" t="s">
+        <v>38</v>
+      </c>
+      <c r="X70" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71" t="s">
+        <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71" t="s">
+        <v>33</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>247</v>
+      </c>
+      <c r="P71" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>248</v>
+      </c>
+      <c r="R71" t="s">
+        <v>249</v>
+      </c>
+      <c r="S71" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" t="s">
+        <v>33</v>
+      </c>
+      <c r="U71" t="s">
+        <v>33</v>
+      </c>
+      <c r="V71">
+        <v>1560</v>
+      </c>
+      <c r="W71" t="s">
+        <v>38</v>
+      </c>
+      <c r="X71" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s">
+        <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" t="s">
+        <v>33</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>4</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>250</v>
+      </c>
+      <c r="P72" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>251</v>
+      </c>
+      <c r="R72" t="s">
+        <v>252</v>
+      </c>
+      <c r="S72" t="s">
+        <v>37</v>
+      </c>
+      <c r="T72" t="s">
+        <v>33</v>
+      </c>
+      <c r="U72" t="s">
+        <v>33</v>
+      </c>
+      <c r="V72">
+        <v>1560</v>
+      </c>
+      <c r="W72" t="s">
+        <v>38</v>
+      </c>
+      <c r="X72" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" t="s">
+        <v>33</v>
+      </c>
+      <c r="K73" t="s">
+        <v>33</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>6</v>
+      </c>
+      <c r="O73" t="s">
+        <v>253</v>
+      </c>
+      <c r="P73" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>254</v>
+      </c>
+      <c r="R73" t="s">
+        <v>255</v>
+      </c>
+      <c r="S73" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73" t="s">
+        <v>33</v>
+      </c>
+      <c r="U73" t="s">
+        <v>33</v>
+      </c>
+      <c r="V73">
+        <v>1560</v>
+      </c>
+      <c r="W73" t="s">
+        <v>38</v>
+      </c>
+      <c r="X73" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
+        <v>33</v>
+      </c>
+      <c r="H74" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" t="s">
+        <v>33</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" t="s">
+        <v>33</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>7</v>
+      </c>
+      <c r="O74" t="s">
+        <v>256</v>
+      </c>
+      <c r="P74" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>257</v>
+      </c>
+      <c r="R74" t="s">
+        <v>258</v>
+      </c>
+      <c r="S74" t="s">
+        <v>37</v>
+      </c>
+      <c r="T74" t="s">
+        <v>33</v>
+      </c>
+      <c r="U74" t="s">
+        <v>33</v>
+      </c>
+      <c r="V74">
+        <v>1500</v>
+      </c>
+      <c r="W74" t="s">
+        <v>38</v>
+      </c>
+      <c r="X74" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s">
+        <v>33</v>
+      </c>
+      <c r="J75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" t="s">
+        <v>33</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>4</v>
+      </c>
+      <c r="N75">
+        <v>8</v>
+      </c>
+      <c r="O75" t="s">
+        <v>259</v>
+      </c>
+      <c r="P75" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>260</v>
+      </c>
+      <c r="R75" t="s">
+        <v>261</v>
+      </c>
+      <c r="S75" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" t="s">
+        <v>33</v>
+      </c>
+      <c r="U75" t="s">
+        <v>33</v>
+      </c>
+      <c r="V75">
+        <v>1500</v>
+      </c>
+      <c r="W75" t="s">
+        <v>38</v>
+      </c>
+      <c r="X75" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
+        <v>33</v>
+      </c>
+      <c r="H76" t="s">
+        <v>33</v>
+      </c>
+      <c r="I76" t="s">
+        <v>33</v>
+      </c>
+      <c r="J76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K76" t="s">
+        <v>33</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>4</v>
+      </c>
+      <c r="N76">
+        <v>9</v>
+      </c>
+      <c r="O76" t="s">
+        <v>262</v>
+      </c>
+      <c r="P76" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>263</v>
+      </c>
+      <c r="R76" t="s">
+        <v>264</v>
+      </c>
+      <c r="S76" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" t="s">
+        <v>33</v>
+      </c>
+      <c r="U76" t="s">
+        <v>33</v>
+      </c>
+      <c r="V76">
+        <v>1500</v>
+      </c>
+      <c r="W76" t="s">
+        <v>38</v>
+      </c>
+      <c r="X76" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" t="s">
+        <v>32</v>
+      </c>
+      <c r="F77" t="s">
+        <v>33</v>
+      </c>
+      <c r="G77" t="s">
+        <v>33</v>
+      </c>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" t="s">
+        <v>33</v>
+      </c>
+      <c r="K77" t="s">
+        <v>33</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>10</v>
+      </c>
+      <c r="O77" t="s">
+        <v>265</v>
+      </c>
+      <c r="P77" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>266</v>
+      </c>
+      <c r="R77" t="s">
+        <v>267</v>
+      </c>
+      <c r="S77" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" t="s">
+        <v>33</v>
+      </c>
+      <c r="U77" t="s">
+        <v>33</v>
+      </c>
+      <c r="V77">
+        <v>1500</v>
+      </c>
+      <c r="W77" t="s">
+        <v>38</v>
+      </c>
+      <c r="X77" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" t="s">
+        <v>33</v>
+      </c>
+      <c r="I78" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" t="s">
+        <v>33</v>
+      </c>
+      <c r="K78" t="s">
+        <v>33</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
+      <c r="N78">
+        <v>11</v>
+      </c>
+      <c r="O78" t="s">
+        <v>268</v>
+      </c>
+      <c r="P78" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>269</v>
+      </c>
+      <c r="R78" t="s">
+        <v>270</v>
+      </c>
+      <c r="S78" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" t="s">
+        <v>33</v>
+      </c>
+      <c r="U78" t="s">
+        <v>33</v>
+      </c>
+      <c r="V78">
+        <v>1500</v>
+      </c>
+      <c r="W78" t="s">
+        <v>38</v>
+      </c>
+      <c r="X78" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>30</v>
+      </c>
+      <c r="D79" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" t="s">
+        <v>33</v>
+      </c>
+      <c r="K79" t="s">
+        <v>33</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>12</v>
+      </c>
+      <c r="O79" t="s">
+        <v>271</v>
+      </c>
+      <c r="P79" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>272</v>
+      </c>
+      <c r="R79" t="s">
+        <v>273</v>
+      </c>
+      <c r="S79" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" t="s">
+        <v>33</v>
+      </c>
+      <c r="U79" t="s">
+        <v>33</v>
+      </c>
+      <c r="V79">
+        <v>1440</v>
+      </c>
+      <c r="W79" t="s">
+        <v>38</v>
+      </c>
+      <c r="X79" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" t="s">
+        <v>33</v>
+      </c>
+      <c r="I80" t="s">
+        <v>33</v>
+      </c>
+      <c r="J80" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" t="s">
+        <v>33</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>4</v>
+      </c>
+      <c r="N80">
+        <v>13</v>
+      </c>
+      <c r="O80" t="s">
+        <v>274</v>
+      </c>
+      <c r="P80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>275</v>
+      </c>
+      <c r="R80" t="s">
+        <v>276</v>
+      </c>
+      <c r="S80" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" t="s">
+        <v>33</v>
+      </c>
+      <c r="U80" t="s">
+        <v>33</v>
+      </c>
+      <c r="V80">
+        <v>1500</v>
+      </c>
+      <c r="W80" t="s">
+        <v>38</v>
+      </c>
+      <c r="X80" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s">
+        <v>33</v>
+      </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" t="s">
+        <v>33</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>4</v>
+      </c>
+      <c r="N81">
+        <v>14</v>
+      </c>
+      <c r="O81" t="s">
+        <v>277</v>
+      </c>
+      <c r="P81" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>278</v>
+      </c>
+      <c r="R81" t="s">
+        <v>279</v>
+      </c>
+      <c r="S81" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" t="s">
+        <v>33</v>
+      </c>
+      <c r="U81" t="s">
+        <v>33</v>
+      </c>
+      <c r="V81">
+        <v>1560</v>
+      </c>
+      <c r="W81" t="s">
+        <v>38</v>
+      </c>
+      <c r="X81" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" t="s">
+        <v>33</v>
+      </c>
+      <c r="G82" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" t="s">
+        <v>33</v>
+      </c>
+      <c r="I82" t="s">
+        <v>33</v>
+      </c>
+      <c r="J82" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" t="s">
+        <v>33</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>15</v>
+      </c>
+      <c r="O82" t="s">
+        <v>280</v>
+      </c>
+      <c r="P82" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>281</v>
+      </c>
+      <c r="R82" t="s">
+        <v>282</v>
+      </c>
+      <c r="S82" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" t="s">
+        <v>33</v>
+      </c>
+      <c r="U82" t="s">
+        <v>33</v>
+      </c>
+      <c r="V82">
+        <v>1560</v>
+      </c>
+      <c r="W82" t="s">
+        <v>38</v>
+      </c>
+      <c r="X82" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" t="s">
+        <v>32</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" t="s">
+        <v>33</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>4</v>
+      </c>
+      <c r="N83">
+        <v>16</v>
+      </c>
+      <c r="O83" t="s">
+        <v>283</v>
+      </c>
+      <c r="P83" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>284</v>
+      </c>
+      <c r="R83" t="s">
+        <v>285</v>
+      </c>
+      <c r="S83" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" t="s">
+        <v>33</v>
+      </c>
+      <c r="U83" t="s">
+        <v>33</v>
+      </c>
+      <c r="V83">
+        <v>1560</v>
+      </c>
+      <c r="W83" t="s">
+        <v>38</v>
+      </c>
+      <c r="X83" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" t="s">
+        <v>33</v>
+      </c>
+      <c r="I84" t="s">
+        <v>33</v>
+      </c>
+      <c r="J84" t="s">
+        <v>33</v>
+      </c>
+      <c r="K84" t="s">
+        <v>33</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>17</v>
+      </c>
+      <c r="O84" t="s">
+        <v>286</v>
+      </c>
+      <c r="P84" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>287</v>
+      </c>
+      <c r="R84" t="s">
+        <v>288</v>
+      </c>
+      <c r="S84" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" t="s">
+        <v>33</v>
+      </c>
+      <c r="U84" t="s">
+        <v>33</v>
+      </c>
+      <c r="V84">
+        <v>1500</v>
+      </c>
+      <c r="W84" t="s">
+        <v>38</v>
+      </c>
+      <c r="X84" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>32</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" t="s">
+        <v>33</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>4</v>
+      </c>
+      <c r="N85">
+        <v>18</v>
+      </c>
+      <c r="O85" t="s">
+        <v>289</v>
+      </c>
+      <c r="P85" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>290</v>
+      </c>
+      <c r="R85" t="s">
+        <v>291</v>
+      </c>
+      <c r="S85" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" t="s">
+        <v>33</v>
+      </c>
+      <c r="U85" t="s">
+        <v>33</v>
+      </c>
+      <c r="V85">
+        <v>1500</v>
+      </c>
+      <c r="W85" t="s">
+        <v>38</v>
+      </c>
+      <c r="X85" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G86" t="s">
+        <v>33</v>
+      </c>
+      <c r="H86" t="s">
+        <v>33</v>
+      </c>
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <v>19</v>
+      </c>
+      <c r="O86" t="s">
+        <v>292</v>
+      </c>
+      <c r="P86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>293</v>
+      </c>
+      <c r="R86" t="s">
+        <v>294</v>
+      </c>
+      <c r="S86" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" t="s">
+        <v>33</v>
+      </c>
+      <c r="U86" t="s">
+        <v>33</v>
+      </c>
+      <c r="V86">
+        <v>1560</v>
+      </c>
+      <c r="W86" t="s">
+        <v>38</v>
+      </c>
+      <c r="X86" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>33</v>
+      </c>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>20</v>
+      </c>
+      <c r="O87" t="s">
+        <v>295</v>
+      </c>
+      <c r="P87" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>296</v>
+      </c>
+      <c r="R87" t="s">
+        <v>297</v>
+      </c>
+      <c r="S87" t="s">
+        <v>37</v>
+      </c>
+      <c r="T87" t="s">
+        <v>33</v>
+      </c>
+      <c r="U87" t="s">
+        <v>33</v>
+      </c>
+      <c r="V87">
+        <v>1560</v>
+      </c>
+      <c r="W87" t="s">
+        <v>38</v>
+      </c>
+      <c r="X87" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
+        <v>32</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
+      <c r="N88">
+        <v>21</v>
+      </c>
+      <c r="O88" t="s">
+        <v>298</v>
+      </c>
+      <c r="P88" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>299</v>
+      </c>
+      <c r="R88" t="s">
+        <v>300</v>
+      </c>
+      <c r="S88" t="s">
+        <v>37</v>
+      </c>
+      <c r="T88" t="s">
+        <v>33</v>
+      </c>
+      <c r="U88" t="s">
+        <v>33</v>
+      </c>
+      <c r="V88">
+        <v>1440</v>
+      </c>
+      <c r="W88" t="s">
+        <v>38</v>
+      </c>
+      <c r="X88" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
+        <v>33</v>
+      </c>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+      <c r="J89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" t="s">
+        <v>33</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>22</v>
+      </c>
+      <c r="O89" t="s">
+        <v>301</v>
+      </c>
+      <c r="P89" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>302</v>
+      </c>
+      <c r="R89" t="s">
+        <v>303</v>
+      </c>
+      <c r="S89" t="s">
+        <v>37</v>
+      </c>
+      <c r="T89" t="s">
+        <v>33</v>
+      </c>
+      <c r="U89" t="s">
+        <v>33</v>
+      </c>
+      <c r="V89">
+        <v>1560</v>
+      </c>
+      <c r="W89" t="s">
+        <v>38</v>
+      </c>
+      <c r="X89" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" t="s">
+        <v>33</v>
+      </c>
+      <c r="G90" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" t="s">
+        <v>33</v>
+      </c>
+      <c r="I90" t="s">
+        <v>33</v>
+      </c>
+      <c r="J90" t="s">
+        <v>33</v>
+      </c>
+      <c r="K90" t="s">
+        <v>33</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90" t="s">
+        <v>304</v>
+      </c>
+      <c r="P90" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>305</v>
+      </c>
+      <c r="R90" t="s">
+        <v>306</v>
+      </c>
+      <c r="S90" t="s">
+        <v>37</v>
+      </c>
+      <c r="T90" t="s">
+        <v>33</v>
+      </c>
+      <c r="U90" t="s">
+        <v>33</v>
+      </c>
+      <c r="V90">
+        <v>1560</v>
+      </c>
+      <c r="W90" t="s">
+        <v>38</v>
+      </c>
+      <c r="X90" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" t="s">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s">
+        <v>33</v>
+      </c>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s">
+        <v>33</v>
+      </c>
+      <c r="J91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91" t="s">
+        <v>33</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>307</v>
+      </c>
+      <c r="P91" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>308</v>
+      </c>
+      <c r="R91" t="s">
+        <v>309</v>
+      </c>
+      <c r="S91" t="s">
+        <v>37</v>
+      </c>
+      <c r="T91" t="s">
+        <v>33</v>
+      </c>
+      <c r="U91" t="s">
+        <v>33</v>
+      </c>
+      <c r="V91">
+        <v>1560</v>
+      </c>
+      <c r="W91" t="s">
+        <v>38</v>
+      </c>
+      <c r="X91" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="s">
+        <v>30</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G92" t="s">
+        <v>33</v>
+      </c>
+      <c r="H92" t="s">
+        <v>33</v>
+      </c>
+      <c r="I92" t="s">
+        <v>33</v>
+      </c>
+      <c r="J92" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>310</v>
+      </c>
+      <c r="P92" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>311</v>
+      </c>
+      <c r="R92" t="s">
+        <v>312</v>
+      </c>
+      <c r="S92" t="s">
+        <v>37</v>
+      </c>
+      <c r="T92" t="s">
+        <v>33</v>
+      </c>
+      <c r="U92" t="s">
+        <v>33</v>
+      </c>
+      <c r="V92">
+        <v>1560</v>
+      </c>
+      <c r="W92" t="s">
+        <v>38</v>
+      </c>
+      <c r="X92" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s">
+        <v>33</v>
+      </c>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" t="s">
+        <v>33</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>5</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>313</v>
+      </c>
+      <c r="P93" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>314</v>
+      </c>
+      <c r="R93" t="s">
+        <v>315</v>
+      </c>
+      <c r="S93" t="s">
+        <v>37</v>
+      </c>
+      <c r="T93" t="s">
+        <v>33</v>
+      </c>
+      <c r="U93" t="s">
+        <v>33</v>
+      </c>
+      <c r="V93">
+        <v>1560</v>
+      </c>
+      <c r="W93" t="s">
+        <v>38</v>
+      </c>
+      <c r="X93" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94" t="s">
+        <v>33</v>
+      </c>
+      <c r="G94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H94" t="s">
+        <v>33</v>
+      </c>
+      <c r="I94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" t="s">
+        <v>33</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>5</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>316</v>
+      </c>
+      <c r="P94" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>317</v>
+      </c>
+      <c r="R94" t="s">
+        <v>318</v>
+      </c>
+      <c r="S94" t="s">
+        <v>37</v>
+      </c>
+      <c r="T94" t="s">
+        <v>33</v>
+      </c>
+      <c r="U94" t="s">
+        <v>33</v>
+      </c>
+      <c r="V94">
+        <v>1560</v>
+      </c>
+      <c r="W94" t="s">
+        <v>38</v>
+      </c>
+      <c r="X94" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s">
+        <v>33</v>
+      </c>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s">
+        <v>33</v>
+      </c>
+      <c r="J95" t="s">
+        <v>33</v>
+      </c>
+      <c r="K95" t="s">
+        <v>33</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>6</v>
+      </c>
+      <c r="O95" t="s">
+        <v>319</v>
+      </c>
+      <c r="P95" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>320</v>
+      </c>
+      <c r="R95" t="s">
+        <v>321</v>
+      </c>
+      <c r="S95" t="s">
+        <v>37</v>
+      </c>
+      <c r="T95" t="s">
+        <v>33</v>
+      </c>
+      <c r="U95" t="s">
+        <v>33</v>
+      </c>
+      <c r="V95">
+        <v>1560</v>
+      </c>
+      <c r="W95" t="s">
+        <v>38</v>
+      </c>
+      <c r="X95" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s">
+        <v>30</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" t="s">
+        <v>33</v>
+      </c>
+      <c r="H96" t="s">
+        <v>33</v>
+      </c>
+      <c r="I96" t="s">
+        <v>33</v>
+      </c>
+      <c r="J96" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96" t="s">
+        <v>33</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>7</v>
+      </c>
+      <c r="O96" t="s">
+        <v>322</v>
+      </c>
+      <c r="P96" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>323</v>
+      </c>
+      <c r="R96" t="s">
+        <v>324</v>
+      </c>
+      <c r="S96" t="s">
+        <v>37</v>
+      </c>
+      <c r="T96" t="s">
+        <v>33</v>
+      </c>
+      <c r="U96" t="s">
+        <v>33</v>
+      </c>
+      <c r="V96">
+        <v>1560</v>
+      </c>
+      <c r="W96" t="s">
+        <v>38</v>
+      </c>
+      <c r="X96" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="s">
+        <v>30</v>
+      </c>
+      <c r="D97" t="s">
+        <v>31</v>
+      </c>
+      <c r="E97" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s">
+        <v>33</v>
+      </c>
+      <c r="J97" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" t="s">
+        <v>33</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>8</v>
+      </c>
+      <c r="O97" t="s">
+        <v>325</v>
+      </c>
+      <c r="P97" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>326</v>
+      </c>
+      <c r="R97" t="s">
+        <v>327</v>
+      </c>
+      <c r="S97" t="s">
+        <v>37</v>
+      </c>
+      <c r="T97" t="s">
+        <v>33</v>
+      </c>
+      <c r="U97" t="s">
+        <v>33</v>
+      </c>
+      <c r="V97">
+        <v>1560</v>
+      </c>
+      <c r="W97" t="s">
+        <v>38</v>
+      </c>
+      <c r="X97" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z97" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" t="s">
+        <v>33</v>
+      </c>
+      <c r="I98" t="s">
+        <v>33</v>
+      </c>
+      <c r="J98" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" t="s">
+        <v>33</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>5</v>
+      </c>
+      <c r="N98">
+        <v>9</v>
+      </c>
+      <c r="O98" t="s">
+        <v>328</v>
+      </c>
+      <c r="P98" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>329</v>
+      </c>
+      <c r="R98" t="s">
+        <v>330</v>
+      </c>
+      <c r="S98" t="s">
+        <v>37</v>
+      </c>
+      <c r="T98" t="s">
+        <v>33</v>
+      </c>
+      <c r="U98" t="s">
+        <v>33</v>
+      </c>
+      <c r="V98">
+        <v>1560</v>
+      </c>
+      <c r="W98" t="s">
+        <v>38</v>
+      </c>
+      <c r="X98" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z98" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB98" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" t="s">
+        <v>31</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s">
+        <v>33</v>
+      </c>
+      <c r="J99" t="s">
+        <v>33</v>
+      </c>
+      <c r="K99" t="s">
+        <v>33</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>5</v>
+      </c>
+      <c r="N99">
+        <v>10</v>
+      </c>
+      <c r="O99" t="s">
+        <v>331</v>
+      </c>
+      <c r="P99" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>332</v>
+      </c>
+      <c r="R99" t="s">
+        <v>333</v>
+      </c>
+      <c r="S99" t="s">
+        <v>37</v>
+      </c>
+      <c r="T99" t="s">
+        <v>33</v>
+      </c>
+      <c r="U99" t="s">
+        <v>33</v>
+      </c>
+      <c r="V99">
+        <v>1560</v>
+      </c>
+      <c r="W99" t="s">
+        <v>38</v>
+      </c>
+      <c r="X99" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB99" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" t="s">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s">
+        <v>33</v>
+      </c>
+      <c r="H100" t="s">
+        <v>33</v>
+      </c>
+      <c r="I100" t="s">
+        <v>33</v>
+      </c>
+      <c r="J100" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100" t="s">
+        <v>33</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>11</v>
+      </c>
+      <c r="O100" t="s">
+        <v>334</v>
+      </c>
+      <c r="P100" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>335</v>
+      </c>
+      <c r="R100" t="s">
+        <v>336</v>
+      </c>
+      <c r="S100" t="s">
+        <v>37</v>
+      </c>
+      <c r="T100" t="s">
+        <v>33</v>
+      </c>
+      <c r="U100" t="s">
+        <v>33</v>
+      </c>
+      <c r="V100">
+        <v>1500</v>
+      </c>
+      <c r="W100" t="s">
+        <v>38</v>
+      </c>
+      <c r="X100" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D101" t="s">
+        <v>31</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101" t="s">
+        <v>33</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s">
+        <v>33</v>
+      </c>
+      <c r="J101" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" t="s">
+        <v>33</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>12</v>
+      </c>
+      <c r="O101" t="s">
+        <v>337</v>
+      </c>
+      <c r="P101" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>338</v>
+      </c>
+      <c r="R101" t="s">
+        <v>339</v>
+      </c>
+      <c r="S101" t="s">
+        <v>37</v>
+      </c>
+      <c r="T101" t="s">
+        <v>33</v>
+      </c>
+      <c r="U101" t="s">
+        <v>33</v>
+      </c>
+      <c r="V101">
+        <v>1560</v>
+      </c>
+      <c r="W101" t="s">
+        <v>38</v>
+      </c>
+      <c r="X101" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB101" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s">
+        <v>33</v>
+      </c>
+      <c r="H102" t="s">
+        <v>33</v>
+      </c>
+      <c r="I102" t="s">
+        <v>33</v>
+      </c>
+      <c r="J102" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102" t="s">
+        <v>33</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <v>13</v>
+      </c>
+      <c r="O102" t="s">
+        <v>340</v>
+      </c>
+      <c r="P102" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>341</v>
+      </c>
+      <c r="R102" t="s">
+        <v>342</v>
+      </c>
+      <c r="S102" t="s">
+        <v>37</v>
+      </c>
+      <c r="T102" t="s">
+        <v>33</v>
+      </c>
+      <c r="U102" t="s">
+        <v>33</v>
+      </c>
+      <c r="V102">
+        <v>1560</v>
+      </c>
+      <c r="W102" t="s">
+        <v>38</v>
+      </c>
+      <c r="X102" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" t="s">
+        <v>31</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" t="s">
+        <v>33</v>
+      </c>
+      <c r="G103" t="s">
+        <v>33</v>
+      </c>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s">
+        <v>33</v>
+      </c>
+      <c r="J103" t="s">
+        <v>33</v>
+      </c>
+      <c r="K103" t="s">
+        <v>33</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>5</v>
+      </c>
+      <c r="N103">
+        <v>14</v>
+      </c>
+      <c r="O103" t="s">
+        <v>343</v>
+      </c>
+      <c r="P103" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>344</v>
+      </c>
+      <c r="R103" t="s">
+        <v>345</v>
+      </c>
+      <c r="S103" t="s">
+        <v>37</v>
+      </c>
+      <c r="T103" t="s">
+        <v>33</v>
+      </c>
+      <c r="U103" t="s">
+        <v>33</v>
+      </c>
+      <c r="V103">
+        <v>1560</v>
+      </c>
+      <c r="W103" t="s">
+        <v>38</v>
+      </c>
+      <c r="X103" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>28</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104" t="s">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s">
+        <v>33</v>
+      </c>
+      <c r="H104" t="s">
+        <v>33</v>
+      </c>
+      <c r="I104" t="s">
+        <v>33</v>
+      </c>
+      <c r="J104" t="s">
+        <v>33</v>
+      </c>
+      <c r="K104" t="s">
+        <v>33</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>5</v>
+      </c>
+      <c r="N104">
+        <v>15</v>
+      </c>
+      <c r="O104" t="s">
+        <v>346</v>
+      </c>
+      <c r="P104" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>347</v>
+      </c>
+      <c r="R104" t="s">
+        <v>348</v>
+      </c>
+      <c r="S104" t="s">
+        <v>37</v>
+      </c>
+      <c r="T104" t="s">
+        <v>33</v>
+      </c>
+      <c r="U104" t="s">
+        <v>33</v>
+      </c>
+      <c r="V104">
+        <v>1560</v>
+      </c>
+      <c r="W104" t="s">
+        <v>38</v>
+      </c>
+      <c r="X104" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>28</v>
+      </c>
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="s">
+        <v>30</v>
+      </c>
+      <c r="D105" t="s">
+        <v>31</v>
+      </c>
+      <c r="E105" t="s">
+        <v>32</v>
+      </c>
+      <c r="F105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s">
+        <v>33</v>
+      </c>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s">
+        <v>33</v>
+      </c>
+      <c r="J105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K105" t="s">
+        <v>33</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="N105">
+        <v>16</v>
+      </c>
+      <c r="O105" t="s">
+        <v>349</v>
+      </c>
+      <c r="P105" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>350</v>
+      </c>
+      <c r="R105" t="s">
+        <v>351</v>
+      </c>
+      <c r="S105" t="s">
+        <v>37</v>
+      </c>
+      <c r="T105" t="s">
+        <v>33</v>
+      </c>
+      <c r="U105" t="s">
+        <v>33</v>
+      </c>
+      <c r="V105">
+        <v>1560</v>
+      </c>
+      <c r="W105" t="s">
+        <v>38</v>
+      </c>
+      <c r="X105" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB105" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>28</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+      <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s">
+        <v>33</v>
+      </c>
+      <c r="H106" t="s">
+        <v>33</v>
+      </c>
+      <c r="I106" t="s">
+        <v>33</v>
+      </c>
+      <c r="J106" t="s">
+        <v>33</v>
+      </c>
+      <c r="K106" t="s">
+        <v>33</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>17</v>
+      </c>
+      <c r="O106" t="s">
+        <v>352</v>
+      </c>
+      <c r="P106" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>353</v>
+      </c>
+      <c r="R106" t="s">
+        <v>354</v>
+      </c>
+      <c r="S106" t="s">
+        <v>37</v>
+      </c>
+      <c r="T106" t="s">
+        <v>33</v>
+      </c>
+      <c r="U106" t="s">
+        <v>33</v>
+      </c>
+      <c r="V106">
+        <v>1560</v>
+      </c>
+      <c r="W106" t="s">
+        <v>38</v>
+      </c>
+      <c r="X106" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB106" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" t="s">
+        <v>31</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" t="s">
+        <v>33</v>
+      </c>
+      <c r="G107" t="s">
+        <v>33</v>
+      </c>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s">
+        <v>33</v>
+      </c>
+      <c r="J107" t="s">
+        <v>33</v>
+      </c>
+      <c r="K107" t="s">
+        <v>33</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>18</v>
+      </c>
+      <c r="O107" t="s">
+        <v>355</v>
+      </c>
+      <c r="P107" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>356</v>
+      </c>
+      <c r="R107" t="s">
+        <v>357</v>
+      </c>
+      <c r="S107" t="s">
+        <v>37</v>
+      </c>
+      <c r="T107" t="s">
+        <v>33</v>
+      </c>
+      <c r="U107" t="s">
+        <v>33</v>
+      </c>
+      <c r="V107">
+        <v>1560</v>
+      </c>
+      <c r="W107" t="s">
+        <v>38</v>
+      </c>
+      <c r="X107" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB107" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" t="s">
+        <v>31</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108" t="s">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s">
+        <v>33</v>
+      </c>
+      <c r="H108" t="s">
+        <v>33</v>
+      </c>
+      <c r="I108" t="s">
+        <v>33</v>
+      </c>
+      <c r="J108" t="s">
+        <v>33</v>
+      </c>
+      <c r="K108" t="s">
+        <v>33</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>5</v>
+      </c>
+      <c r="N108">
+        <v>19</v>
+      </c>
+      <c r="O108" t="s">
+        <v>358</v>
+      </c>
+      <c r="P108" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>359</v>
+      </c>
+      <c r="R108" t="s">
+        <v>360</v>
+      </c>
+      <c r="S108" t="s">
+        <v>37</v>
+      </c>
+      <c r="T108" t="s">
+        <v>33</v>
+      </c>
+      <c r="U108" t="s">
+        <v>33</v>
+      </c>
+      <c r="V108">
+        <v>1560</v>
+      </c>
+      <c r="W108" t="s">
+        <v>38</v>
+      </c>
+      <c r="X108" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB108" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" t="s">
+        <v>31</v>
+      </c>
+      <c r="E109" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" t="s">
+        <v>33</v>
+      </c>
+      <c r="G109" t="s">
+        <v>33</v>
+      </c>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>33</v>
+      </c>
+      <c r="J109" t="s">
+        <v>33</v>
+      </c>
+      <c r="K109" t="s">
+        <v>33</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>20</v>
+      </c>
+      <c r="O109" t="s">
+        <v>361</v>
+      </c>
+      <c r="P109" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>362</v>
+      </c>
+      <c r="R109" t="s">
+        <v>363</v>
+      </c>
+      <c r="S109" t="s">
+        <v>37</v>
+      </c>
+      <c r="T109" t="s">
+        <v>33</v>
+      </c>
+      <c r="U109" t="s">
+        <v>33</v>
+      </c>
+      <c r="V109">
+        <v>1560</v>
+      </c>
+      <c r="W109" t="s">
+        <v>38</v>
+      </c>
+      <c r="X109" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z109" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB109" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>28</v>
+      </c>
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="s">
+        <v>30</v>
+      </c>
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
+        <v>33</v>
+      </c>
+      <c r="H110" t="s">
+        <v>33</v>
+      </c>
+      <c r="I110" t="s">
+        <v>33</v>
+      </c>
+      <c r="J110" t="s">
+        <v>33</v>
+      </c>
+      <c r="K110" t="s">
+        <v>33</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>6</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>364</v>
+      </c>
+      <c r="P110" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>365</v>
+      </c>
+      <c r="R110" t="s">
+        <v>366</v>
+      </c>
+      <c r="S110" t="s">
+        <v>37</v>
+      </c>
+      <c r="T110" t="s">
+        <v>33</v>
+      </c>
+      <c r="U110" t="s">
+        <v>33</v>
+      </c>
+      <c r="V110">
+        <v>1440</v>
+      </c>
+      <c r="W110" t="s">
+        <v>38</v>
+      </c>
+      <c r="X110" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z110" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>28</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" t="s">
+        <v>32</v>
+      </c>
+      <c r="F111" t="s">
+        <v>33</v>
+      </c>
+      <c r="G111" t="s">
+        <v>33</v>
+      </c>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>33</v>
+      </c>
+      <c r="J111" t="s">
+        <v>33</v>
+      </c>
+      <c r="K111" t="s">
+        <v>33</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>6</v>
+      </c>
+      <c r="N111">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>367</v>
+      </c>
+      <c r="P111" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>368</v>
+      </c>
+      <c r="R111" t="s">
+        <v>369</v>
+      </c>
+      <c r="S111" t="s">
+        <v>37</v>
+      </c>
+      <c r="T111" t="s">
+        <v>33</v>
+      </c>
+      <c r="U111" t="s">
+        <v>33</v>
+      </c>
+      <c r="V111">
+        <v>1440</v>
+      </c>
+      <c r="W111" t="s">
+        <v>38</v>
+      </c>
+      <c r="X111" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z111" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>28</v>
+      </c>
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s">
+        <v>33</v>
+      </c>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s">
+        <v>33</v>
+      </c>
+      <c r="J112" t="s">
+        <v>33</v>
+      </c>
+      <c r="K112" t="s">
+        <v>33</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>370</v>
+      </c>
+      <c r="P112" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>371</v>
+      </c>
+      <c r="R112" t="s">
+        <v>372</v>
+      </c>
+      <c r="S112" t="s">
+        <v>37</v>
+      </c>
+      <c r="T112" t="s">
+        <v>33</v>
+      </c>
+      <c r="U112" t="s">
+        <v>33</v>
+      </c>
+      <c r="V112">
+        <v>1380</v>
+      </c>
+      <c r="W112" t="s">
+        <v>38</v>
+      </c>
+      <c r="X112" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z112" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB112" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>28</v>
+      </c>
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113" t="s">
+        <v>33</v>
+      </c>
+      <c r="G113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+      <c r="J113" t="s">
+        <v>33</v>
+      </c>
+      <c r="K113" t="s">
+        <v>33</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>6</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>373</v>
+      </c>
+      <c r="P113" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>374</v>
+      </c>
+      <c r="R113" t="s">
+        <v>375</v>
+      </c>
+      <c r="S113" t="s">
+        <v>37</v>
+      </c>
+      <c r="T113" t="s">
+        <v>33</v>
+      </c>
+      <c r="U113" t="s">
+        <v>33</v>
+      </c>
+      <c r="V113">
+        <v>1500</v>
+      </c>
+      <c r="W113" t="s">
+        <v>38</v>
+      </c>
+      <c r="X113" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z113" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" t="s">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s">
+        <v>33</v>
+      </c>
+      <c r="H114" t="s">
+        <v>33</v>
+      </c>
+      <c r="I114" t="s">
+        <v>33</v>
+      </c>
+      <c r="J114" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" t="s">
+        <v>33</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>6</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>376</v>
+      </c>
+      <c r="P114" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>377</v>
+      </c>
+      <c r="R114" t="s">
+        <v>378</v>
+      </c>
+      <c r="S114" t="s">
+        <v>37</v>
+      </c>
+      <c r="T114" t="s">
+        <v>33</v>
+      </c>
+      <c r="U114" t="s">
+        <v>33</v>
+      </c>
+      <c r="V114">
+        <v>1440</v>
+      </c>
+      <c r="W114" t="s">
+        <v>38</v>
+      </c>
+      <c r="X114" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z114" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B115" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" t="s">
+        <v>33</v>
+      </c>
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>6</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
+      </c>
+      <c r="O115" t="s">
+        <v>379</v>
+      </c>
+      <c r="P115" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>380</v>
+      </c>
+      <c r="R115" t="s">
+        <v>381</v>
+      </c>
+      <c r="S115" t="s">
+        <v>37</v>
+      </c>
+      <c r="T115" t="s">
+        <v>33</v>
+      </c>
+      <c r="U115" t="s">
+        <v>33</v>
+      </c>
+      <c r="V115">
+        <v>1440</v>
+      </c>
+      <c r="W115" t="s">
+        <v>38</v>
+      </c>
+      <c r="X115" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s">
+        <v>33</v>
+      </c>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+      <c r="J116" t="s">
+        <v>33</v>
+      </c>
+      <c r="K116" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>6</v>
+      </c>
+      <c r="N116">
+        <v>7</v>
+      </c>
+      <c r="O116" t="s">
+        <v>382</v>
+      </c>
+      <c r="P116" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>383</v>
+      </c>
+      <c r="R116" t="s">
+        <v>384</v>
+      </c>
+      <c r="S116" t="s">
+        <v>37</v>
+      </c>
+      <c r="T116" t="s">
+        <v>33</v>
+      </c>
+      <c r="U116" t="s">
+        <v>33</v>
+      </c>
+      <c r="V116">
+        <v>1440</v>
+      </c>
+      <c r="W116" t="s">
+        <v>38</v>
+      </c>
+      <c r="X116" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+      <c r="F117" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" t="s">
+        <v>33</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+      <c r="J117" t="s">
+        <v>33</v>
+      </c>
+      <c r="K117" t="s">
+        <v>33</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117">
+        <v>6</v>
+      </c>
+      <c r="N117">
+        <v>8</v>
+      </c>
+      <c r="O117" t="s">
+        <v>385</v>
+      </c>
+      <c r="P117" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>386</v>
+      </c>
+      <c r="R117" t="s">
+        <v>387</v>
+      </c>
+      <c r="S117" t="s">
+        <v>37</v>
+      </c>
+      <c r="T117" t="s">
+        <v>33</v>
+      </c>
+      <c r="U117" t="s">
+        <v>33</v>
+      </c>
+      <c r="V117">
+        <v>1440</v>
+      </c>
+      <c r="W117" t="s">
+        <v>38</v>
+      </c>
+      <c r="X117" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" t="s">
+        <v>30</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" t="s">
+        <v>33</v>
+      </c>
+      <c r="H118" t="s">
+        <v>33</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+      <c r="J118" t="s">
+        <v>33</v>
+      </c>
+      <c r="K118" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>6</v>
+      </c>
+      <c r="N118">
+        <v>9</v>
+      </c>
+      <c r="O118" t="s">
+        <v>388</v>
+      </c>
+      <c r="P118" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>389</v>
+      </c>
+      <c r="R118" t="s">
+        <v>390</v>
+      </c>
+      <c r="S118" t="s">
+        <v>37</v>
+      </c>
+      <c r="T118" t="s">
+        <v>33</v>
+      </c>
+      <c r="U118" t="s">
+        <v>33</v>
+      </c>
+      <c r="V118">
+        <v>1320</v>
+      </c>
+      <c r="W118" t="s">
+        <v>38</v>
+      </c>
+      <c r="X118" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z118" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" t="s">
+        <v>30</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" t="s">
+        <v>33</v>
+      </c>
+      <c r="H119" t="s">
+        <v>33</v>
+      </c>
+      <c r="I119" t="s">
+        <v>33</v>
+      </c>
+      <c r="J119" t="s">
+        <v>33</v>
+      </c>
+      <c r="K119" t="s">
+        <v>33</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>6</v>
+      </c>
+      <c r="N119">
+        <v>10</v>
+      </c>
+      <c r="O119" t="s">
+        <v>391</v>
+      </c>
+      <c r="P119" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>392</v>
+      </c>
+      <c r="R119" t="s">
+        <v>393</v>
+      </c>
+      <c r="S119" t="s">
+        <v>37</v>
+      </c>
+      <c r="T119" t="s">
+        <v>33</v>
+      </c>
+      <c r="U119" t="s">
+        <v>33</v>
+      </c>
+      <c r="V119">
+        <v>1440</v>
+      </c>
+      <c r="W119" t="s">
+        <v>38</v>
+      </c>
+      <c r="X119" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z119" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA119" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" t="s">
+        <v>30</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s">
+        <v>32</v>
+      </c>
+      <c r="F120" t="s">
+        <v>33</v>
+      </c>
+      <c r="G120" t="s">
+        <v>33</v>
+      </c>
+      <c r="H120" t="s">
+        <v>33</v>
+      </c>
+      <c r="I120" t="s">
+        <v>33</v>
+      </c>
+      <c r="J120" t="s">
+        <v>33</v>
+      </c>
+      <c r="K120" t="s">
+        <v>33</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120">
+        <v>11</v>
+      </c>
+      <c r="O120" t="s">
+        <v>394</v>
+      </c>
+      <c r="P120" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>395</v>
+      </c>
+      <c r="R120" t="s">
+        <v>396</v>
+      </c>
+      <c r="S120" t="s">
+        <v>37</v>
+      </c>
+      <c r="T120" t="s">
+        <v>33</v>
+      </c>
+      <c r="U120" t="s">
+        <v>33</v>
+      </c>
+      <c r="V120">
+        <v>1440</v>
+      </c>
+      <c r="W120" t="s">
+        <v>38</v>
+      </c>
+      <c r="X120" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB120" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" t="s">
+        <v>30</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="H121" t="s">
+        <v>33</v>
+      </c>
+      <c r="I121" t="s">
+        <v>33</v>
+      </c>
+      <c r="J121" t="s">
+        <v>33</v>
+      </c>
+      <c r="K121" t="s">
+        <v>33</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>6</v>
+      </c>
+      <c r="N121">
+        <v>12</v>
+      </c>
+      <c r="O121" t="s">
+        <v>397</v>
+      </c>
+      <c r="P121" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>398</v>
+      </c>
+      <c r="R121" t="s">
+        <v>399</v>
+      </c>
+      <c r="S121" t="s">
+        <v>37</v>
+      </c>
+      <c r="T121" t="s">
+        <v>33</v>
+      </c>
+      <c r="U121" t="s">
+        <v>33</v>
+      </c>
+      <c r="V121">
+        <v>1440</v>
+      </c>
+      <c r="W121" t="s">
+        <v>38</v>
+      </c>
+      <c r="X121" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y121" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA121" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB121" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" t="s">
+        <v>30</v>
+      </c>
+      <c r="D122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122" t="s">
+        <v>33</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" t="s">
+        <v>33</v>
+      </c>
+      <c r="I122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" t="s">
+        <v>33</v>
+      </c>
+      <c r="K122" t="s">
+        <v>33</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>6</v>
+      </c>
+      <c r="N122">
+        <v>13</v>
+      </c>
+      <c r="O122" t="s">
+        <v>400</v>
+      </c>
+      <c r="P122" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>401</v>
+      </c>
+      <c r="R122" t="s">
+        <v>402</v>
+      </c>
+      <c r="S122" t="s">
+        <v>37</v>
+      </c>
+      <c r="T122" t="s">
+        <v>33</v>
+      </c>
+      <c r="U122" t="s">
+        <v>33</v>
+      </c>
+      <c r="V122">
+        <v>1440</v>
+      </c>
+      <c r="W122" t="s">
+        <v>38</v>
+      </c>
+      <c r="X122" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y122" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z122" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA122" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB122" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s">
+        <v>30</v>
+      </c>
+      <c r="D123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" t="s">
+        <v>32</v>
+      </c>
+      <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
+        <v>33</v>
+      </c>
+      <c r="H123" t="s">
+        <v>33</v>
+      </c>
+      <c r="I123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" t="s">
+        <v>33</v>
+      </c>
+      <c r="K123" t="s">
+        <v>33</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>7</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>403</v>
+      </c>
+      <c r="P123" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>404</v>
+      </c>
+      <c r="R123" t="s">
+        <v>405</v>
+      </c>
+      <c r="S123" t="s">
+        <v>37</v>
+      </c>
+      <c r="T123" t="s">
+        <v>33</v>
+      </c>
+      <c r="U123" t="s">
+        <v>33</v>
+      </c>
+      <c r="V123">
+        <v>1500</v>
+      </c>
+      <c r="W123" t="s">
+        <v>38</v>
+      </c>
+      <c r="X123" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y123" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>